--- a/sheets/health.xlsx
+++ b/sheets/health.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="health-equipment" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -81,21 +81,6 @@
     <t xml:space="preserve">https://www.amazon.ae/Benecheck-Plus-Meter-Cholesterol-Glucose/dp/B07F758J7T</t>
   </si>
   <si>
-    <t xml:space="preserve">Infants' TYLENOL® Dye Free Liquid Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When it comes to reducing fever or relieving pain, TYLENOL® is the brand recommended most by pediatricians.  Infants’ TYLENOL® works differently than other pain and fever medicines.  It also won’t upset little stomachs. Infant’s TYLENOL® Dye-Free Cherry Liquid is free of dyes, parabens, and high fructose corn syrup. If your child is under 2 years of age, be sure to ask your doctor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tylenol.com/sites/tylenol_us/files/styles/product_image/public/product-images/infantstylenoliquid4ozcherryleft.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tylenol.com/sites/tylenol_us/files/styles/product_image/public/product-images/tylped_infnt-df-cherry_bty_ft_712x630.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.tylenol.com/products/infants-tylenol-oral-suspension-dye-free</t>
-  </si>
-  <si>
     <t xml:space="preserve">Philips Respironics InnoSpire Essence Nebuliser (UK 3-pin Plug) with SideStream Technology, Mouthpiece, Child and Adult Mask and Handset Docking Station</t>
   </si>
   <si>
@@ -172,8 +157,7 @@
     <t xml:space="preserve">https://ug.iherb.com/pr/bluebonnet-nutrition-skinny-garcinia-weight-management-formula-90-vegetable-capsules/8505</t>
   </si>
   <si>
-    <t xml:space="preserve">Fermented Zinc Complex
-</t>
+    <t xml:space="preserve">Fermented Zinc Complex</t>
   </si>
   <si>
     <t xml:space="preserve">Bioavailable fermented Zinc supports healthy immune system function and supports skin health and resilience.* Blended with superfood herbs including Elderberry.</t>
@@ -183,6 +167,63 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.newchapter.com/calcium-minerals/zinc-complex/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puritan’s Pride Vitamin D3 25 mcg (1000 IU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintain the health of bones and teeth. Support the health of the immune system, brain, and nervous system.
+How to use?
+    For adults, take one (1) softgel up to two times daily, preferably with meals.
+Contains:
+    Vitamin D 25 mcg (1,000 IU) 125% (as D3 Cholecalciferol)
+BRAND:	Puritan's Pride
+SIZE: 30
+UNIT: Softgel
+BENEFITS	
+ - Supports healthy bones and teeth**
+ - An essential nutrient that aids in Calcium absorption**
+ - Helps maintain a healthy immune system**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pharmaplus.ae/wp-content/uploads/2021/06/15604_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pharmaplus.ae/product/puritans-pride-vitamin-d3-25-mcg-1000-iu-trial-size/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infants' TYLENOL® Dye Free Liquid Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When it comes to reducing fever or relieving pain, TYLENOL® is the brand recommended most by pediatricians.  Infants’ TYLENOL® works differently than other pain and fever medicines.  It also won’t upset little stomachs. Infant’s TYLENOL® Dye-Free Cherry Liquid is free of dyes, parabens, and high fructose corn syrup. If your child is under 2 years of age, be sure to ask your doctor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tylenol.com/sites/tylenol_us/files/styles/product_image/public/product-images/infantstylenoliquid4ozcherryleft.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tylenol.com/sites/tylenol_us/files/styles/product_image/public/product-images/tylped_infnt-df-cherry_bty_ft_712x630.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tylenol.com/products/infants-tylenol-oral-suspension-dye-free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trojan 6MM Yoga Mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Ideal For Yoga/Pilates Poses and home exercises or any workout that requires the user to lie down on the floor
+- Non-slip surface finish
+- Straps included for easy transportation
+- Lightweight NBR PVC material
+Color: Grey, Pink
+Brand: Trojan
+Dimensions: 1730 mm (l) x 600 mm (w) x 3 mm (h)
+Material: PVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://odukar.com/product/trojan-6mm-yoga-mat/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i2.wp.com/odukar.com/wp-content/uploads/2021/04/trojan-yoga-mat-grey-model.jpg?fit=800%2C630&amp;ssl=1</t>
   </si>
 </sst>
 </file>
@@ -298,13 +339,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -330,7 +371,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="n">
+        <v>3326</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -351,6 +394,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2587</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -372,103 +418,93 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="0" t="n">
+        <v>3332</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>150000</v>
+        <v>560000</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>3334</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>560000</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3336</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1" t="n">
+        <v>700000</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>800000</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>700000</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="2"/>
-    </row>
+    </row>
+    <row r="11" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -478,7 +514,6 @@
     <row r="18" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -495,13 +530,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -527,60 +562,86 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3320</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>75000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>3322</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3324</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -602,10 +663,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -631,23 +692,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3330</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -666,14 +730,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/sheets/health.xlsx
+++ b/sheets/health.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="health-equipment" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -123,6 +123,36 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.sa/-/en/Omron-Evolv-Wireless-Pressure-Monitor/dp/B01MT54RFU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scale, digital stainless steel, 30x30 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This scale with clean lines and a stainless steel surface owns its place, regardless of the style you have in your bathroom. Easy to use and can measure your weight in kilograms, pounds and stones.
+Adjustable weight system: kg, pounds and stones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/es/en/images/products/borsan-scale-digital-stainless-steel__0931450_pe791056_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/es/en/images/products/borsan-scale-digital-stainless-steel__0931451_pe791055_s5.jpg?f=xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/es/en/p/borsan-scale-digital-stainless-steel-80327438/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eufy Smart Scale C1 with Bluetooth 4.2 - Black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instantly learn 12 insightful measurements of your body’s health, such as Weight, Body Fat, BMI, Bone Mass, Muscle Mass, and more.
+The Eufy Life app automatically records insightful health data. Progress and health trends are traced automatically over time.
+Wo pairs of super-sensitive sensors ensure precise and correct measurements. FDA-listed for complete reliability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61B52AT14CL._AC_SL1478_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71v1pHANYEL._AC_SL1500_.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Steviana Zero-Calorie Stevia Sweetener, 50 Sachets Box ( 50 X 2.5g ), 125g</t>
@@ -220,10 +250,13 @@
 Material: PVC</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i2.wp.com/odukar.com/wp-content/uploads/2021/04/trojan-yoga-mat-grey-bigger.jpg?fit=800%2C640&amp;ssl=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i2.wp.com/odukar.com/wp-content/uploads/2021/04/trojan-yoga-mat-grey-model.jpg?fit=800%2C630&amp;ssl=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://odukar.com/product/trojan-6mm-yoga-mat/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://i2.wp.com/odukar.com/wp-content/uploads/2021/04/trojan-yoga-mat-grey-model.jpg?fit=800%2C630&amp;ssl=1</t>
   </si>
 </sst>
 </file>
@@ -342,10 +375,10 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -480,19 +513,47 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="0" t="n">
+        <v>4586</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="A8" s="0" t="n">
+        <v>4589</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="2"/>
@@ -532,11 +593,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -566,22 +627,22 @@
         <v>3320</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>75000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,22 +650,22 @@
         <v>3322</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,36 +673,39 @@
         <v>3324</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4591</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +730,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -696,22 +760,22 @@
         <v>3330</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -730,13 +794,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -761,23 +825,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4594</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>250000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/sheets/health.xlsx
+++ b/sheets/health.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -257,6 +257,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://odukar.com/product/trojan-6mm-yoga-mat/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TROJAN TONING SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Trojan toning set is designed to give you a full-body workout and allows you to focus on specific muscle groups.
+Equipped with an exercise wheel, this toning set lets you work your abs without all the bulk of most gym equipment.
+The skipping rope is excellent for cardio, while the resistance band is aimed toward working arms. This toning set is a great starting point for those getting started with their fitness journey.
+3 piece set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trojanhealth.co.za/storage/TSET001-TROJAN-TONING-SET-2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trojanhealth.co.za/storage/TSET001-TROJAN-TONING-SET-5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trojanhealth.co.za/product/toning-set/</t>
   </si>
 </sst>
 </file>
@@ -378,7 +396,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -597,7 +615,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -730,7 +748,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -797,10 +815,10 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -848,7 +866,26 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/sheets/health.xlsx
+++ b/sheets/health.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -275,6 +275,23 @@
   </si>
   <si>
     <t xml:space="preserve">https://trojanhealth.co.za/product/toning-set/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Shapers Hot Belt Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Shapers Hot Belt Power are fitness wear designed with Neotex smart fabric technology that increases core temperature helping your body sweat, sweat, sweat &amp; sweat more while wearing them during daily activities. The Hot Shapers Hot Belt Power is a unique belt designed to shape and preserve the figure for those who want rapid results in reducing sizes. This product will not only make you sweat where you need to but will gradually start molding your waist and abdomen area.
+Its design will maintain perfect back support and posture due to adjustable double flex bands and flex vertical bars. The Neotex smart fabric in Hot Shapers increases core temperature during exercise, sports, walking, running, at home or during any physical activity. Hot Shapers clothing can be worn while active regardless of what you are doing. Just put them on and feel the results!!
+Hot Shapers' unique NEOTEX sweat fabric makes all products lightweight, flexible, comfortable and great for increasing calorie burn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.takealot.com/covers_images/50ad3692ef8e40b2b8901e21c8f7215f/s-zoom.file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.takealot.com/covers_images/0563e957467f40b4bce1b968df9bfec9/s-zoom.file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.takealot.com/hot-shapers-hot-belt-power/PLID91472893?utm_source=oweb&amp;utm_medium=product_page</t>
   </si>
 </sst>
 </file>
@@ -396,7 +413,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -615,7 +632,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -748,7 +765,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -814,11 +831,11 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -867,6 +884,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5239</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>66</v>
       </c>
@@ -886,7 +906,26 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/sheets/health.xlsx
+++ b/sheets/health.xlsx
@@ -413,7 +413,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -632,7 +632,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -765,7 +765,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -831,11 +831,11 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -907,6 +907,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>5240</v>
+      </c>
       <c r="B4" s="0" t="s">
         <v>71</v>
       </c>
